--- a/biology/Zoologie/Hyphilaria/Hyphilaria.xlsx
+++ b/biology/Zoologie/Hyphilaria/Hyphilaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphilaria est un genre d'insectes lépidoptères de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Hyphilaria leur a été donné par Jacob Hübner en 1819.
 </t>
@@ -542,11 +556,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hyphilaria anophthalma (C. &amp; R. Felder, 1865); présent en Colombie et en  Équateur
 Hyphilaria anthias (Hewitson, 1874); présent en Guyane, en Guyana, en Colombie, au Venezuela, en Bolivie et au Pérou.
-Hyphilaria nicia Hübner, [1819]; présent en Guyane, en Guyana et en Bolivie.
+Hyphilaria nicia Hübner, ; présent en Guyane, en Guyana et en Bolivie.
 Hyphilaria parthenis (Westwood, 1851); présent en Guyane, en Guyana, au Surinam,  en Colombie et en Bolivie.</t>
         </is>
       </c>
